--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Gas6-Mertk.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H2">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J2">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N2">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P2">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q2">
-        <v>108.0926054003256</v>
+        <v>180.245694075375</v>
       </c>
       <c r="R2">
-        <v>972.8334486029299</v>
+        <v>1622.211246678375</v>
       </c>
       <c r="S2">
-        <v>0.04195459257026386</v>
+        <v>0.06557711140465365</v>
       </c>
       <c r="T2">
-        <v>0.04195459257026386</v>
+        <v>0.06557711140465365</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H3">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J3">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>5.443887</v>
       </c>
       <c r="O3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P3">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q3">
-        <v>22.29269246507033</v>
+        <v>44.351156852955</v>
       </c>
       <c r="R3">
-        <v>200.634232185633</v>
+        <v>399.1604116765951</v>
       </c>
       <c r="S3">
-        <v>0.008652588456003673</v>
+        <v>0.01613586814814704</v>
       </c>
       <c r="T3">
-        <v>0.008652588456003672</v>
+        <v>0.01613586814814703</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>12.28498633333333</v>
+        <v>24.440895</v>
       </c>
       <c r="H4">
-        <v>36.854959</v>
+        <v>73.32268500000001</v>
       </c>
       <c r="I4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="J4">
-        <v>0.1279589698403688</v>
+        <v>0.2259632546784623</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>48.66687</v>
       </c>
       <c r="O4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P4">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q4">
-        <v>199.29061094537</v>
+        <v>396.48728654955</v>
       </c>
       <c r="R4">
-        <v>1793.61549850833</v>
+        <v>3568.385578945951</v>
       </c>
       <c r="S4">
-        <v>0.0773517888141013</v>
+        <v>0.1442502751256616</v>
       </c>
       <c r="T4">
-        <v>0.07735178881410128</v>
+        <v>0.1442502751256616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>196.815372</v>
       </c>
       <c r="I5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J5">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N5">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O5">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P5">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q5">
-        <v>577.2435221624933</v>
+        <v>483.8219349283667</v>
       </c>
       <c r="R5">
-        <v>5195.19169946244</v>
+        <v>4354.3974143553</v>
       </c>
       <c r="S5">
-        <v>0.2240487838780371</v>
+        <v>0.1760244264894603</v>
       </c>
       <c r="T5">
-        <v>0.2240487838780371</v>
+        <v>0.1760244264894602</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>196.815372</v>
       </c>
       <c r="I6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J6">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>5.443887</v>
       </c>
       <c r="O6">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P6">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q6">
         <v>119.048960558996</v>
@@ -818,10 +818,10 @@
         <v>1071.440645030964</v>
       </c>
       <c r="S6">
-        <v>0.04620714449122758</v>
+        <v>0.0433124740606609</v>
       </c>
       <c r="T6">
-        <v>0.04620714449122758</v>
+        <v>0.04331247406066089</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>196.815372</v>
       </c>
       <c r="I7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756374</v>
       </c>
       <c r="J7">
-        <v>0.6833352399026945</v>
+        <v>0.6065386452756373</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>48.66687</v>
       </c>
       <c r="O7">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P7">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q7">
         <v>1064.26534701396</v>
@@ -880,10 +880,10 @@
         <v>9578.38812312564</v>
       </c>
       <c r="S7">
-        <v>0.4130793115334299</v>
+        <v>0.3872017447255163</v>
       </c>
       <c r="T7">
-        <v>0.4130793115334299</v>
+        <v>0.3872017447255161</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>54.351361</v>
       </c>
       <c r="I8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J8">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.798756666666666</v>
+        <v>7.374758333333332</v>
       </c>
       <c r="N8">
-        <v>26.39627</v>
+        <v>22.124275</v>
       </c>
       <c r="O8">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="P8">
-        <v>0.3278753542842912</v>
+        <v>0.2902113952021427</v>
       </c>
       <c r="Q8">
-        <v>159.4081333137189</v>
+        <v>133.6093841542528</v>
       </c>
       <c r="R8">
-        <v>1434.67319982347</v>
+        <v>1202.484457388275</v>
       </c>
       <c r="S8">
-        <v>0.06187197783599024</v>
+        <v>0.04860985730802884</v>
       </c>
       <c r="T8">
-        <v>0.06187197783599024</v>
+        <v>0.04860985730802884</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>54.351361</v>
       </c>
       <c r="I9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J9">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>5.443887</v>
       </c>
       <c r="O9">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849509</v>
       </c>
       <c r="P9">
-        <v>0.06762002278384967</v>
+        <v>0.07140925709849508</v>
       </c>
       <c r="Q9">
         <v>32.87585195335633</v>
@@ -1004,10 +1004,10 @@
         <v>295.882667580207</v>
       </c>
       <c r="S9">
-        <v>0.01276028983661841</v>
+        <v>0.01196091488968716</v>
       </c>
       <c r="T9">
-        <v>0.01276028983661841</v>
+        <v>0.01196091488968715</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>54.351361</v>
       </c>
       <c r="I10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="J10">
-        <v>0.1887057902569366</v>
+        <v>0.1674981000459004</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>48.66687</v>
       </c>
       <c r="O10">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993622</v>
       </c>
       <c r="P10">
-        <v>0.6045046229318591</v>
+        <v>0.6383793476993621</v>
       </c>
       <c r="Q10">
         <v>293.90118001223</v>
@@ -1066,10 +1066,10 @@
         <v>2645.11062011007</v>
       </c>
       <c r="S10">
-        <v>0.114073522584328</v>
+        <v>0.1069273278481844</v>
       </c>
       <c r="T10">
-        <v>0.114073522584328</v>
+        <v>0.1069273278481844</v>
       </c>
     </row>
   </sheetData>
